--- a/share/data/reeks_22_23.xlsx
+++ b/share/data/reeks_22_23.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Ploegnaam</t>
   </si>
   <si>
-    <t xml:space="preserve">Clubnr_Ploegnaam</t>
+    <t xml:space="preserve">ClubnrPloegnaam</t>
   </si>
   <si>
     <t xml:space="preserve">T.A.L. 1</t>
@@ -1285,10 +1285,10 @@
     <t xml:space="preserve">244 Brussels 3</t>
   </si>
   <si>
-    <t xml:space="preserve">BYE 5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000 BYE 5B</t>
+    <t xml:space="preserve">The Belgian CC 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209 The Belgian CC 3</t>
   </si>
   <si>
     <t xml:space="preserve">CELB Anderlues 3</t>
@@ -1780,10 +1780,10 @@
     <t xml:space="preserve">207 2 Fous Diogène 5</t>
   </si>
   <si>
-    <t xml:space="preserve">The Belgian CC 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209 The Belgian CC 3</t>
+    <t xml:space="preserve">The Belgian CC 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209 The Belgian CC 4</t>
   </si>
   <si>
     <t xml:space="preserve">Brussels 4</t>
@@ -2005,10 +2005,10 @@
     <t xml:space="preserve">422 MSV 4</t>
   </si>
   <si>
-    <t xml:space="preserve">The Belgian CC 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209 The Belgian CC 4</t>
+    <t xml:space="preserve">BYE 5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000 BYE 5L</t>
   </si>
   <si>
     <t xml:space="preserve">Opwijk 3</t>
@@ -2209,18 +2209,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2286,11 +2280,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2303,7 +2297,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2311,74 +2305,7 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00B0F0"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2396,7 +2323,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6463,13 +6390,13 @@
       <c r="C205" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D205" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" s="8" t="s">
+      <c r="D205" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="E205" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="F205" s="0" t="s">
+      <c r="F205" s="5" t="s">
         <v>421</v>
       </c>
     </row>
@@ -8823,10 +8750,10 @@
       <c r="C323" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D323" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="E323" s="5" t="s">
+      <c r="D323" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" s="8" t="s">
         <v>660</v>
       </c>
       <c r="F323" s="0" t="s">

--- a/share/data/reeks_22_23.xlsx
+++ b/share/data/reeks_22_23.xlsx
@@ -265,48 +265,48 @@
     <t xml:space="preserve">143 Boey Temse 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Caissa Europe 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548 Caissa Europe 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leuze-En-Hainaut 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">541 Leuze-En-Hainaut 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dworp 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228 Dworp 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europchess 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226 Europchess 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pion-Aalst 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">417 Pion-Aalst 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREB Bruxelles 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201 CREB Bruxelles 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">KGSRL 4</t>
   </si>
   <si>
     <t xml:space="preserve">401 KGSRL 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Leuze-En-Hainaut 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">541 Leuze-En-Hainaut 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dworp 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228 Dworp 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europchess 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226 Europchess 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pion-Aalst 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">417 Pion-Aalst 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREB Bruxelles 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201 CREB Bruxelles 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caissa Europe 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">548 Caissa Europe 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Philippeville 1</t>
   </si>
   <si>
@@ -1339,24 +1339,24 @@
     <t xml:space="preserve">901 Namur Echecs 6</t>
   </si>
   <si>
+    <t xml:space="preserve">Caissa Europe 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548 Caissa Europe 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDC 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511 EDC 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soignies 1</t>
   </si>
   <si>
     <t xml:space="preserve">518 Soignies 1</t>
   </si>
   <si>
-    <t xml:space="preserve">EDC 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511 EDC 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caissa Europe 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">548 Caissa Europe 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saint-Ghislain 1</t>
   </si>
   <si>
@@ -1942,10 +1942,10 @@
     <t xml:space="preserve">231 Dolle Toren Leuven 3</t>
   </si>
   <si>
-    <t xml:space="preserve">BYE 5K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000 BYE 5K</t>
+    <t xml:space="preserve">Turnhout 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121 Turnhout 4</t>
   </si>
   <si>
     <t xml:space="preserve">L</t>
@@ -2026,10 +2026,10 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">Turnhout 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121 Turnhout 4</t>
+    <t xml:space="preserve">Turnhout 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121 Turnhout 5</t>
   </si>
   <si>
     <t xml:space="preserve">Midden-Limburg 4</t>
@@ -2125,16 +2125,16 @@
     <t xml:space="preserve">551 HCC Jurbise 3</t>
   </si>
   <si>
+    <t xml:space="preserve">CES 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902 CES 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Caissa Europe 4</t>
   </si>
   <si>
     <t xml:space="preserve">548 Caissa Europe 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CES 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">902 CES 3</t>
   </si>
   <si>
     <t xml:space="preserve">CREC Charleroi 5</t>
@@ -2209,12 +2209,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2251,7 +2257,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2280,6 +2286,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2297,7 +2315,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2305,7 +2323,74 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA9D18E"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3050,13 +3135,13 @@
       <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="7" t="n">
+        <v>548</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3170,13 +3255,13 @@
       <c r="C44" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D44" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" s="7" t="n">
+        <v>401</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6090,10 +6175,10 @@
       <c r="C190" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D190" s="7" t="n">
+      <c r="D190" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E190" s="8" t="s">
+      <c r="E190" s="11" t="s">
         <v>390</v>
       </c>
       <c r="F190" s="0" t="s">
@@ -6570,13 +6655,13 @@
       <c r="C214" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D214" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="E214" s="5" t="s">
+      <c r="D214" s="7" t="n">
+        <v>548</v>
+      </c>
+      <c r="E214" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="F214" s="0" t="s">
+      <c r="F214" s="9" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6610,13 +6695,13 @@
       <c r="C216" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D216" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="E216" s="5" t="s">
+      <c r="D216" s="7" t="n">
+        <v>518</v>
+      </c>
+      <c r="E216" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F216" s="0" t="s">
+      <c r="F216" s="9" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6870,10 +6955,10 @@
       <c r="C229" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D229" s="7" t="n">
+      <c r="D229" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E229" s="8" t="s">
+      <c r="E229" s="11" t="s">
         <v>468</v>
       </c>
       <c r="F229" s="0" t="s">
@@ -7270,10 +7355,10 @@
       <c r="C249" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D249" s="7" t="n">
+      <c r="D249" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E249" s="8" t="s">
+      <c r="E249" s="11" t="s">
         <v>508</v>
       </c>
       <c r="F249" s="0" t="s">
@@ -7830,10 +7915,10 @@
       <c r="C277" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D277" s="7" t="n">
+      <c r="D277" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E277" s="8" t="s">
+      <c r="E277" s="11" t="s">
         <v>564</v>
       </c>
       <c r="F277" s="0" t="s">
@@ -7970,10 +8055,10 @@
       <c r="C284" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D284" s="7" t="n">
+      <c r="D284" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E284" s="8" t="s">
+      <c r="E284" s="11" t="s">
         <v>579</v>
       </c>
       <c r="F284" s="0" t="s">
@@ -8551,12 +8636,12 @@
         <v>12</v>
       </c>
       <c r="D313" s="7" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E313" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="F313" s="0" t="s">
+      <c r="F313" s="9" t="s">
         <v>640</v>
       </c>
     </row>
@@ -8750,10 +8835,10 @@
       <c r="C323" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D323" s="7" t="n">
+      <c r="D323" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E323" s="8" t="s">
+      <c r="E323" s="11" t="s">
         <v>660</v>
       </c>
       <c r="F323" s="0" t="s">
@@ -8813,10 +8898,10 @@
       <c r="D326" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="E326" s="5" t="s">
+      <c r="E326" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="F326" s="0" t="s">
+      <c r="F326" s="9" t="s">
         <v>668</v>
       </c>
     </row>
@@ -8930,10 +9015,10 @@
       <c r="C332" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D332" s="7" t="n">
+      <c r="D332" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E332" s="8" t="s">
+      <c r="E332" s="11" t="s">
         <v>679</v>
       </c>
       <c r="F332" s="0" t="s">
@@ -9130,13 +9215,13 @@
       <c r="C342" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D342" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="E342" s="5" t="s">
+      <c r="D342" s="7" t="n">
+        <v>902</v>
+      </c>
+      <c r="E342" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="F342" s="0" t="s">
+      <c r="F342" s="9" t="s">
         <v>701</v>
       </c>
     </row>
@@ -9150,13 +9235,13 @@
       <c r="C343" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D343" s="1" t="n">
-        <v>902</v>
-      </c>
-      <c r="E343" s="5" t="s">
+      <c r="D343" s="7" t="n">
+        <v>548</v>
+      </c>
+      <c r="E343" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="F343" s="0" t="s">
+      <c r="F343" s="9" t="s">
         <v>703</v>
       </c>
     </row>
@@ -9230,10 +9315,10 @@
       <c r="C347" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D347" s="7" t="n">
+      <c r="D347" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E347" s="8" t="s">
+      <c r="E347" s="11" t="s">
         <v>710</v>
       </c>
       <c r="F347" s="0" t="s">
